--- a/va_facility_data_2025-02-20/Lincoln VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lincoln%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lincoln VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lincoln%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re655f68b8c0a422dbe4241954b228bdb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R859dfbfe3e72461ba01695af59392fdd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R000374944eb24267bed85db4bac3edb5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf4ebeafa2864a878c5ca2a3127d4e20"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5de724bf24944ebea8af22820261e0dd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R34c6329eb40e43d48d618dbfd8c78fe6"/>
   </x:sheets>
 </x:workbook>
 </file>
